--- a/信用卡贷后系统/二期需求排期表.xlsx
+++ b/信用卡贷后系统/二期需求排期表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -271,13 +271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,150 +296,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -456,8 +306,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,13 +322,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,7 +346,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,194 +356,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -780,255 +450,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1059,45 +487,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1107,67 +559,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1429,36 +825,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.51327433628319" style="3" customWidth="1"/>
-    <col min="2" max="2" width="34.2566371681416" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.0088495575221" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.5663716814159" style="3" customWidth="1"/>
-    <col min="5" max="6" width="9.49557522123894" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.6814159292035" style="3" customWidth="1"/>
-    <col min="8" max="8" width="5.51327433628319" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.6814159292035" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.50442477876106" style="4" customWidth="1"/>
-    <col min="11" max="11" width="32.929203539823" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.02654867256637" style="3"/>
+    <col min="1" max="1" width="5.54296875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="34.26953125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" style="3" customWidth="1"/>
+    <col min="5" max="6" width="9.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5.54296875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.54296875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="32.90625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17" customHeight="1" spans="1:11">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="17" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +881,7 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
@@ -1513,7 +908,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="22"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
@@ -1534,7 +929,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="22"/>
+      <c r="J3" s="17"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11">
@@ -1561,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="22"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11">
@@ -1585,15 +980,15 @@
         <v>23</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="15">
+      <c r="I5" s="26">
         <v>3.45</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="31">
         <v>3.32</v>
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" ht="27" spans="1:11">
+    <row r="6" spans="1:11" ht="28">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1614,18 +1009,18 @@
         <v>23</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="24"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="32"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="10">
+      <c r="A7" s="24">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1642,17 +1037,17 @@
         <v>22</v>
       </c>
       <c r="I7" s="6">
-        <v>8.12</v>
-      </c>
-      <c r="J7" s="22"/>
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="J7" s="17"/>
       <c r="K7" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="13"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -1666,16 +1061,16 @@
         <v>31</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="15">
+      <c r="I8" s="26">
         <v>3.41</v>
       </c>
-      <c r="J8" s="23"/>
+      <c r="J8" s="18"/>
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1693,14 +1088,14 @@
       <c r="H9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="25"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="13"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -1710,17 +1105,17 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="16">
+      <c r="I10" s="12">
         <v>1</v>
       </c>
-      <c r="J10" s="24"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="15">
+      <c r="A11" s="26">
         <v>7</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1735,13 +1130,15 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="24"/>
+      <c r="I11" s="27">
+        <v>14.64</v>
+      </c>
+      <c r="J11" s="19"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="6" t="s">
         <v>38</v>
       </c>
@@ -1754,13 +1151,13 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="24"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="6" t="s">
         <v>39</v>
       </c>
@@ -1773,13 +1170,13 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="24"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="19"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="6" t="s">
         <v>40</v>
       </c>
@@ -1792,13 +1189,13 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="24"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="19"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="6" t="s">
         <v>41</v>
       </c>
@@ -1811,13 +1208,13 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="24"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="19"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="6" t="s">
         <v>42</v>
       </c>
@@ -1830,13 +1227,13 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="24"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="19"/>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="6" t="s">
         <v>43</v>
       </c>
@@ -1849,13 +1246,13 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="24"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="19"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" ht="27" spans="1:11">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
+    <row r="18" spans="1:11" ht="28">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="9" t="s">
         <v>44</v>
       </c>
@@ -1868,8 +1265,8 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="25"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="6" t="s">
         <v>46</v>
       </c>
@@ -1878,7 +1275,7 @@
       <c r="A19" s="6">
         <v>8</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="6"/>
@@ -1892,7 +1289,7 @@
       <c r="I19" s="6">
         <v>6.49</v>
       </c>
-      <c r="J19" s="22"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11">
@@ -1915,14 +1312,14 @@
       <c r="I20" s="6">
         <v>0.82</v>
       </c>
-      <c r="J20" s="22"/>
+      <c r="J20" s="17"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" ht="27" spans="1:11">
-      <c r="A21" s="15">
+    <row r="21" spans="1:11" ht="28">
+      <c r="A21" s="26">
         <v>10</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="26" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -1931,7 +1328,7 @@
       <c r="D21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="26" t="s">
         <v>30</v>
       </c>
       <c r="F21" s="6"/>
@@ -1939,130 +1336,130 @@
         <v>23</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="15">
+      <c r="I21" s="26">
         <v>2.35</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="31">
         <v>2.11</v>
       </c>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" ht="27" spans="1:11">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="19" t="s">
+    <row r="22" spans="1:11" ht="28">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="14" t="s">
         <v>53</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6" t="s">
         <v>23</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="25"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="33"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="6">
+      <c r="A23" s="29">
         <v>11</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="29" t="s">
         <v>30</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="22"/>
+      <c r="J23" s="17"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="22"/>
+      <c r="J24" s="17"/>
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="20" t="s">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="15" t="s">
         <v>59</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="29"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="27"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="22"/>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="18" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="22"/>
+      <c r="J26" s="17"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" ht="27" spans="1:11">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+    <row r="27" spans="1:11" ht="28">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="22"/>
+      <c r="J27" s="17"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" customFormat="1" ht="27" spans="1:11">
+    <row r="28" spans="1:11" customFormat="1" ht="28">
       <c r="A28" s="6">
         <v>12</v>
       </c>
       <c r="B28" s="6"/>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="14" t="s">
         <v>62</v>
       </c>
       <c r="D28" s="6"/>
@@ -2071,10 +1468,10 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="22"/>
+      <c r="J28" s="17"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" customFormat="1" spans="1:11">
+    <row r="29" spans="1:11" customFormat="1">
       <c r="A29" s="6">
         <v>13</v>
       </c>
@@ -2090,10 +1487,10 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="22"/>
+      <c r="J29" s="17"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" customFormat="1" spans="1:11">
+    <row r="30" spans="1:11" customFormat="1">
       <c r="A30" s="6">
         <v>14</v>
       </c>
@@ -2109,10 +1506,10 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="22"/>
+      <c r="J30" s="17"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" customFormat="1" ht="27" spans="1:11">
+    <row r="31" spans="1:11" customFormat="1" ht="28">
       <c r="A31" s="6">
         <v>15</v>
       </c>
@@ -2128,10 +1525,10 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="22"/>
+      <c r="J31" s="17"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" ht="40.5" spans="1:11">
+    <row r="32" spans="1:11" ht="42">
       <c r="A32" s="6">
         <v>16</v>
       </c>
@@ -2147,10 +1544,10 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="22"/>
+      <c r="J32" s="17"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" ht="40.5" spans="1:11">
+    <row r="33" spans="1:11" ht="42">
       <c r="A33" s="6">
         <v>17</v>
       </c>
@@ -2166,24 +1563,24 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="22"/>
+      <c r="J33" s="17"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="36" spans="9:10">
+    <row r="36" spans="1:11">
       <c r="I36" s="3">
         <f>SUM(I2:I35)</f>
-        <v>25.64</v>
+        <v>40.28</v>
       </c>
       <c r="J36" s="4">
         <f>SUM(J2:J35)</f>
         <v>5.43</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:10">
+    <row r="37" spans="1:11" s="2" customFormat="1">
       <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J37" s="28"/>
+      <c r="J37" s="23"/>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="3" t="s">
@@ -2197,6 +1594,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I11:I18"/>
+    <mergeCell ref="I21:I22"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A18"/>
     <mergeCell ref="A21:A22"/>
@@ -2205,17 +1610,9 @@
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B27"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I11:I18"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J21:J22"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/信用卡贷后系统/二期需求排期表.xlsx
+++ b/信用卡贷后系统/二期需求排期表.xlsx
@@ -180,91 +180,96 @@
     <t>卡种额度对应参数模块</t>
   </si>
   <si>
+    <t>等业务确认需求</t>
+  </si>
+  <si>
+    <t>茂坤先做解付对接决策的接口</t>
+  </si>
+  <si>
+    <t>抵押贷款需求</t>
+  </si>
+  <si>
+    <t>影像平台3.0</t>
+  </si>
+  <si>
+    <t>4月28日已上线</t>
+  </si>
+  <si>
+    <t>押品报表（2张）</t>
+  </si>
+  <si>
+    <t>全行信用卡押品统计表（按分支行和出入库）</t>
+  </si>
+  <si>
+    <t>4月28日上线</t>
+  </si>
+  <si>
+    <t>抵押类信用卡统计表（按分支行与出入库）</t>
+  </si>
+  <si>
+    <t>未开发</t>
+  </si>
+  <si>
+    <t>押品管理优化</t>
+  </si>
+  <si>
+    <t>取值多渠道进件系统押品数据调整</t>
+  </si>
+  <si>
+    <t>押品管理查看权限</t>
+  </si>
+  <si>
+    <t>已有此功能</t>
+  </si>
+  <si>
+    <t>“待办任务”及“预警量”数字项</t>
+  </si>
+  <si>
+    <t>押品预警规则</t>
+  </si>
+  <si>
+    <t>未解押队列，已解押队列增加“卡种”筛选条件</t>
+  </si>
+  <si>
+    <t>贷后预警（单笔贷款白名单）查看权限</t>
+  </si>
+  <si>
+    <t>电话银行调额</t>
+  </si>
+  <si>
+    <t>调整固定额度和临时额度</t>
+  </si>
+  <si>
+    <t>等重新提需求</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>供数：大数据提供贷款数据，押品数据，客户信息</t>
+  </si>
+  <si>
+    <t>新核心，旧核心，info系统</t>
+  </si>
+  <si>
+    <t>贷后管理人统计明细报表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预警队列需增加“预警量”数字项，“押品预警”队列主页面增加字段“预警天数”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户贷后管理历程记录（管理人变更、状态变更）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加用户待办任务队列（调查、止付、解付、额度调整、催收等功能任务增加待办任务队列）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>止付，降额，待调查，解付审批流程</t>
-  </si>
-  <si>
-    <t>等业务确认需求</t>
-  </si>
-  <si>
-    <t>茂坤先做解付对接决策的接口</t>
-  </si>
-  <si>
-    <t>抵押贷款需求</t>
-  </si>
-  <si>
-    <t>影像平台3.0</t>
-  </si>
-  <si>
-    <t>4月28日已上线</t>
-  </si>
-  <si>
-    <t>押品报表（2张）</t>
-  </si>
-  <si>
-    <t>全行信用卡押品统计表（按分支行和出入库）</t>
-  </si>
-  <si>
-    <t>4月28日上线</t>
-  </si>
-  <si>
-    <t>抵押类信用卡统计表（按分支行与出入库）</t>
-  </si>
-  <si>
-    <t>未开发</t>
-  </si>
-  <si>
-    <t>押品管理优化</t>
-  </si>
-  <si>
-    <t>取值多渠道进件系统押品数据调整</t>
-  </si>
-  <si>
-    <t>押品管理查看权限</t>
-  </si>
-  <si>
-    <t>已有此功能</t>
-  </si>
-  <si>
-    <t>“待办任务”及“预警量”数字项</t>
-  </si>
-  <si>
-    <t>押品预警规则</t>
-  </si>
-  <si>
-    <t>未解押队列，已解押队列增加“卡种”筛选条件</t>
-  </si>
-  <si>
-    <t>贷后预警（单笔贷款白名单）查看权限</t>
-  </si>
-  <si>
-    <t>电话银行调额</t>
-  </si>
-  <si>
-    <t>调整固定额度和临时额度</t>
-  </si>
-  <si>
-    <t>贷后管理人统计明细报表</t>
-  </si>
-  <si>
-    <t>等重新提需求</t>
-  </si>
-  <si>
-    <t>客户贷后管理历程记录（管理人变更、状态变更）</t>
-  </si>
-  <si>
-    <t>增加用户待办任务队列（调查、止付、解付、额度调整、催收等功能任务增加待办任务队列）</t>
-  </si>
-  <si>
-    <t>预警队列需增加“预警量”数字项，“押品预警”队列主页面增加字段“预警天数”</t>
-  </si>
-  <si>
-    <t>合计</t>
-  </si>
-  <si>
-    <t>供数：大数据提供贷款数据，押品数据，客户信息</t>
-  </si>
-  <si>
-    <t>新核心，旧核心，info系统</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -833,9 +838,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1254,10 +1259,10 @@
       <c r="A18" s="28"/>
       <c r="B18" s="28"/>
       <c r="C18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>19</v>
@@ -1268,7 +1273,7 @@
       <c r="I18" s="28"/>
       <c r="J18" s="20"/>
       <c r="K18" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1276,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1297,11 +1302,11 @@
         <v>9</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>19</v>
@@ -1320,13 +1325,13 @@
         <v>10</v>
       </c>
       <c r="B21" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>30</v>
@@ -1348,10 +1353,10 @@
       <c r="A22" s="28"/>
       <c r="B22" s="28"/>
       <c r="C22" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="6"/>
@@ -1368,13 +1373,13 @@
         <v>11</v>
       </c>
       <c r="B23" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>56</v>
-      </c>
       <c r="D23" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>30</v>
@@ -1390,10 +1395,10 @@
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="C24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="6"/>
@@ -1407,10 +1412,10 @@
       <c r="A25" s="29"/>
       <c r="B25" s="29"/>
       <c r="C25" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="6"/>
@@ -1424,10 +1429,10 @@
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="C26" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="6"/>
@@ -1441,10 +1446,10 @@
       <c r="A27" s="29"/>
       <c r="B27" s="29"/>
       <c r="C27" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="6"/>
@@ -1460,7 +1465,7 @@
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -1476,10 +1481,10 @@
         <v>13</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1496,10 +1501,10 @@
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -1515,10 +1520,10 @@
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -1534,10 +1539,10 @@
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -1556,7 +1561,7 @@
         <v>69</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -1578,18 +1583,18 @@
     </row>
     <row r="37" spans="1:11" s="2" customFormat="1">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J37" s="23"/>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/信用卡贷后系统/二期需求排期表.xlsx
+++ b/信用卡贷后系统/二期需求排期表.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="75">
   <si>
     <t>序号</t>
   </si>
@@ -126,33 +126,21 @@
     <t>5月26日上线</t>
   </si>
   <si>
-    <t>贷后管理系统权限管理、押品管理和个人信息添加的需求</t>
-  </si>
-  <si>
     <t>ACM岗位权限架构</t>
   </si>
   <si>
     <t>评工作量8到9个</t>
   </si>
   <si>
-    <t>机构映射</t>
-  </si>
-  <si>
     <t>杨骏</t>
   </si>
   <si>
     <t>有（未评）</t>
   </si>
   <si>
-    <t>贷后管理人维护需求</t>
-  </si>
-  <si>
     <t>开发中</t>
   </si>
   <si>
-    <t>在客户基本信息中增加字段</t>
-  </si>
-  <si>
     <t>预警管理</t>
   </si>
   <si>
@@ -193,9 +181,6 @@
   </si>
   <si>
     <t>4月28日已上线</t>
-  </si>
-  <si>
-    <t>押品报表（2张）</t>
   </si>
   <si>
     <t>全行信用卡押品统计表（按分支行和出入库）</t>
@@ -269,6 +254,34 @@
   </si>
   <si>
     <t>止付，降额，待调查，解付审批流程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月9号，新核心上线，批量、单笔调额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>押品报表（2张）（s2021s00665）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在客户基本信息中增加字段</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构映射</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷后管理人维护需求</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">贷后管理人维护&amp;押品管理&amp;客户基本信息 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷后管理系统权限管理</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -318,7 +331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,37 +340,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,108 +444,72 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,766 +786,778 @@
   <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="34.26953125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" style="3" customWidth="1"/>
-    <col min="5" max="6" width="9.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.6328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="5.54296875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.54296875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="32.90625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="5.54296875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" style="17" customWidth="1"/>
+    <col min="5" max="6" width="9.453125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="5.54296875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="7.54296875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="32.90625" style="17" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="17" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="17" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="6">
+    <row r="2" spans="1:11" ht="28">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="6" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="6">
+    <row r="3" spans="1:11" ht="28">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="6"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="6"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="26">
+      <c r="H5" s="4"/>
+      <c r="I5" s="7">
         <v>3.45</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="7">
         <v>3.32</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="28">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="6"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="24">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="4">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="J7" s="4">
+        <v>5.77</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="6" t="s">
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="7">
+        <v>3.41</v>
+      </c>
+      <c r="J8" s="7">
+        <v>3.09</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="10"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="28">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="14">
+        <v>14.64</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" ht="28">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="4">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4">
+        <v>6.49</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="4">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" ht="28">
+      <c r="A21" s="7">
+        <v>10</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="7">
+        <v>2.35</v>
+      </c>
+      <c r="J21" s="7">
+        <v>2.11</v>
+      </c>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" ht="28">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="14">
+        <v>11</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" ht="28">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" s="16" customFormat="1" ht="28">
+      <c r="A28" s="4">
         <v>12</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" s="16" customFormat="1">
+      <c r="A29" s="4">
         <v>13</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="6">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="25"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="26">
-        <v>3.41</v>
-      </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="25"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="25"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="12">
-        <v>1</v>
-      </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="26">
-        <v>7</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="27">
-        <v>14.64</v>
-      </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" ht="28">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="6">
-        <v>8</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6">
-        <v>6.49</v>
-      </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="6">
-        <v>9</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6">
-        <v>0.82</v>
-      </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" ht="28">
-      <c r="A21" s="26">
-        <v>10</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="26">
-        <v>2.35</v>
-      </c>
-      <c r="J21" s="31">
-        <v>2.11</v>
-      </c>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" ht="28">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="29">
-        <v>11</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="15" t="s">
+      <c r="C29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="13" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" s="16" customFormat="1">
+      <c r="A30" s="4">
+        <v>14</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" ht="28">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" customFormat="1" ht="28">
-      <c r="A28" s="6">
-        <v>12</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" customFormat="1">
-      <c r="A29" s="6">
-        <v>13</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="1:11" customFormat="1">
-      <c r="A30" s="6">
-        <v>14</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" s="16" customFormat="1" ht="28">
+      <c r="A31" s="4">
+        <v>15</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" ht="42">
+      <c r="A32" s="4">
+        <v>16</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" ht="42">
+      <c r="A33" s="4">
+        <v>17</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="1:11" customFormat="1" ht="28">
-      <c r="A31" s="6">
-        <v>15</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="1:11" ht="42">
-      <c r="A32" s="6">
-        <v>16</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="6"/>
-    </row>
-    <row r="33" spans="1:11" ht="42">
-      <c r="A33" s="6">
-        <v>17</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="6"/>
+      <c r="D33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="5"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="I36" s="3">
+      <c r="I36" s="6">
         <f>SUM(I2:I35)</f>
         <v>40.28</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="6">
         <f>SUM(J2:J35)</f>
-        <v>5.43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="2" customFormat="1">
-      <c r="A37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J37" s="23"/>
+        <v>15.29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="18" customFormat="1">
+      <c r="A37" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="K37" s="19"/>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="3" t="s">
-        <v>66</v>
+      <c r="B83" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="3" t="s">
-        <v>67</v>
+      <c r="B84" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="E21:E22"/>
@@ -1607,14 +1566,15 @@
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I11:I18"/>
     <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J8:J9"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A18"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/信用卡贷后系统/二期需求排期表.xlsx
+++ b/信用卡贷后系统/二期需求排期表.xlsx
@@ -108,9 +108,6 @@
     <t>冉茂坤</t>
   </si>
   <si>
-    <t>调额优化</t>
-  </si>
-  <si>
     <t>3月17日已上线</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>已评</t>
   </si>
   <si>
-    <t>新核心调额，打标识区分特殊客户跑批流程需求</t>
-  </si>
-  <si>
     <t>5月26日上线</t>
   </si>
   <si>
@@ -174,9 +168,6 @@
     <t>茂坤先做解付对接决策的接口</t>
   </si>
   <si>
-    <t>抵押贷款需求</t>
-  </si>
-  <si>
     <t>影像平台3.0</t>
   </si>
   <si>
@@ -220,9 +211,6 @@
   </si>
   <si>
     <t>电话银行调额</t>
-  </si>
-  <si>
-    <t>调整固定额度和临时额度</t>
   </si>
   <si>
     <t>等重新提需求</t>
@@ -282,6 +270,22 @@
   </si>
   <si>
     <t>贷后管理系统权限管理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>调额优化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新核心调额，打标识区分特殊客户跑批流程需求（已有需求编号）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵押贷款需求</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整固定额度和临时额度</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -466,49 +470,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -785,23 +786,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5.54296875" style="6" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" style="10" customWidth="1"/>
     <col min="5" max="6" width="9.453125" style="6" customWidth="1"/>
     <col min="7" max="7" width="11.6328125" style="6" customWidth="1"/>
     <col min="8" max="8" width="5.54296875" style="6" customWidth="1"/>
     <col min="9" max="9" width="11.6328125" style="6" customWidth="1"/>
     <col min="10" max="10" width="7.54296875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="32.90625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="32.90625" style="10" customWidth="1"/>
     <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -915,27 +916,27 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>20</v>
+      <c r="B5" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="7">
+      <c r="I5" s="14">
         <v>3.45</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="14">
         <v>3.32</v>
       </c>
       <c r="K5" s="5"/>
@@ -945,37 +946,37 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
       <c r="K6" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="9">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>26</v>
+      <c r="B7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
@@ -988,7 +989,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="4">
         <v>8.1199999999999992</v>
@@ -997,69 +998,69 @@
         <v>5.77</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>71</v>
+      <c r="A8" s="19"/>
+      <c r="B8" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="7">
+      <c r="I8" s="14">
         <v>3.41</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="14">
         <v>3.09</v>
       </c>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="20" t="s">
-        <v>72</v>
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="10"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1074,17 +1075,17 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="28">
-      <c r="A11" s="7">
+      <c r="A11" s="14">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>19</v>
@@ -1092,20 +1093,20 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="14">
+      <c r="I11" s="17">
         <v>14.64</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>19</v>
@@ -1113,18 +1114,18 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="14"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+    <row r="13" spans="1:11" ht="28">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>19</v>
@@ -1132,18 +1133,18 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="14"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="4"/>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>19</v>
@@ -1151,18 +1152,18 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="14"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>19</v>
@@ -1170,18 +1171,18 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="14"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="4"/>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>19</v>
@@ -1189,18 +1190,18 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="14"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>19</v>
@@ -1208,18 +1209,18 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="14"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="4"/>
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" ht="28">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>19</v>
@@ -1227,23 +1228,23 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="14"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="4"/>
       <c r="K18" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="4">
         <v>8</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>42</v>
+      <c r="B19" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1259,11 +1260,11 @@
         <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>19</v>
@@ -1278,68 +1279,68 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" ht="28">
-      <c r="A21" s="7">
+      <c r="A21" s="14">
         <v>10</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>69</v>
+      <c r="B21" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H21" s="4"/>
-      <c r="I21" s="7">
+      <c r="I21" s="14">
         <v>2.35</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="14">
         <v>2.11</v>
       </c>
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" ht="28">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="E22" s="16"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H22" s="4"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="14">
+    <row r="23" spans="1:11" ht="28">
+      <c r="A23" s="17">
         <v>11</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>49</v>
+      <c r="B23" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>28</v>
+        <v>45</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1349,15 +1350,15 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="14"/>
+        <v>49</v>
+      </c>
+      <c r="E24" s="17"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1365,33 +1366,33 @@
       <c r="J24" s="4"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+    <row r="25" spans="1:11" ht="28">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="14"/>
+        <v>45</v>
+      </c>
+      <c r="E25" s="17"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
       <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="14"/>
+        <v>45</v>
+      </c>
+      <c r="E26" s="17"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -1400,15 +1401,15 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" ht="28">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="E27" s="17"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -1416,13 +1417,13 @@
       <c r="J27" s="4"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:11" s="16" customFormat="1" ht="28">
+    <row r="28" spans="1:11" s="9" customFormat="1" ht="28">
       <c r="A28" s="4">
         <v>12</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="4"/>
@@ -1433,15 +1434,15 @@
       <c r="J28" s="4"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:11" s="16" customFormat="1">
+    <row r="29" spans="1:11" s="9" customFormat="1">
       <c r="A29" s="4">
         <v>13</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="4"/>
@@ -1452,16 +1453,16 @@
       <c r="J29" s="4"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" s="16" customFormat="1">
+    <row r="30" spans="1:11" s="9" customFormat="1">
       <c r="A30" s="4">
         <v>14</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1471,16 +1472,16 @@
       <c r="J30" s="4"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" s="16" customFormat="1" ht="28">
+    <row r="31" spans="1:11" s="9" customFormat="1" ht="28">
       <c r="A31" s="4">
         <v>15</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1490,16 +1491,16 @@
       <c r="J31" s="4"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" ht="42">
+    <row r="32" spans="1:11" ht="56">
       <c r="A32" s="4">
         <v>16</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1509,16 +1510,16 @@
       <c r="J32" s="4"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" ht="42">
+    <row r="33" spans="1:11" ht="56">
       <c r="A33" s="4">
         <v>17</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1538,26 +1539,34 @@
         <v>15.29</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="18" customFormat="1">
-      <c r="A37" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="K37" s="19"/>
+    <row r="37" spans="1:11" s="11" customFormat="1">
+      <c r="A37" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="K37" s="12"/>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B8:B10"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="E21:E22"/>
@@ -1567,14 +1576,6 @@
     <mergeCell ref="I11:I18"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
